--- a/app/src/main/res/raw/change_region_head_form.xlsx
+++ b/app/src/main/res/raw/change_region_head_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>regionCode</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code de la Région</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የክልል ኮድ  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>2.1. Code de l'ancien chef de Région</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የአሁኑ የክልል አለቃ ኮድ  </t>
+  </si>
+  <si>
     <t>oldHeadName</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>2.2. Nom de l'ancien chef de Région</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የአሁኑ የክልል አለቃ ስም  </t>
+  </si>
+  <si>
     <t>newhead</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>3.1. Code du nouveau chef de Région</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. አዲሱ የክልል አለቃ ኮድ  </t>
+  </si>
+  <si>
     <t>newHeadName</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>3.2. Nom du nouveau chef de Région</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. አዲሱ የክልል አለቃ ስም  </t>
+  </si>
+  <si>
     <t>eventDate</t>
   </si>
   <si>
@@ -202,6 +223,9 @@
     <t>4.1. Date de l'événement?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.1. የለውጡ ክስተት ቀን  </t>
+  </si>
+  <si>
     <t>reason</t>
   </si>
   <si>
@@ -220,6 +244,9 @@
     <t>4.2. Raison du changement de Chef de Région?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.2. የክልል አለቃን ለመቀየር ምክንያት  </t>
+  </si>
+  <si>
     <t>reasonOther</t>
   </si>
   <si>
@@ -232,6 +259,9 @@
     <t>4.2.1. Préciser le motif</t>
   </si>
   <si>
+    <t xml:space="preserve">4.2.1. ምክንያቱን ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${reason} = 'OTHER'</t>
   </si>
   <si>
@@ -253,6 +283,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -268,6 +301,9 @@
     <t>Date de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -277,18 +313,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -301,6 +346,9 @@
     <t>Accès aux modules autorisé</t>
   </si>
   <si>
+    <t xml:space="preserve">ለመድረሻዎች የተፈቀደ መዳረሻ </t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -316,6 +364,9 @@
     <t>Oui</t>
   </si>
   <si>
+    <t xml:space="preserve">አዎን  </t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -325,6 +376,9 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">አይደለም  </t>
+  </si>
+  <si>
     <t>RESIDENCY_CHANGE</t>
   </si>
   <si>
@@ -337,6 +391,9 @@
     <t>Par changement de résidence</t>
   </si>
   <si>
+    <t xml:space="preserve">የመኖሪያ ሁኔታ ለውጥ  </t>
+  </si>
+  <si>
     <t>OLD_AGE</t>
   </si>
   <si>
@@ -349,6 +406,9 @@
     <t>Âge avancé de l'ancien chef</t>
   </si>
   <si>
+    <t xml:space="preserve">የቀድሞው አለቃ ዕድሜ በመብረቅ  </t>
+  </si>
+  <si>
     <t>DIVORCE</t>
   </si>
   <si>
@@ -361,6 +421,9 @@
     <t>Divorce/Séparation</t>
   </si>
   <si>
+    <t xml:space="preserve">ፍቺ ወይም መለያየት  </t>
+  </si>
+  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -373,6 +436,9 @@
     <t>Emploi</t>
   </si>
   <si>
+    <t xml:space="preserve">ስራ  </t>
+  </si>
+  <si>
     <t>HEALTH_REASONS</t>
   </si>
   <si>
@@ -385,6 +451,9 @@
     <t>Raisons de santé</t>
   </si>
   <si>
+    <t xml:space="preserve">የጤና ምክንያቶች  </t>
+  </si>
+  <si>
     <t>DEATH</t>
   </si>
   <si>
@@ -397,6 +466,9 @@
     <t>Décès</t>
   </si>
   <si>
+    <t xml:space="preserve">ሞት  </t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -409,6 +481,9 @@
     <t>Autres raisons</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌሎች ምክንያቶች </t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -421,6 +496,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -440,6 +518,9 @@
   </si>
   <si>
     <t>Changement de Chef de [${form_title}]</t>
+  </si>
+  <si>
+    <t>[${form_title}] የአለቃ ለውጥ</t>
   </si>
 </sst>
 </file>
@@ -447,10 +528,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -484,6 +565,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -493,14 +582,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -515,23 +605,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,21 +672,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,7 +687,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,36 +701,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
@@ -620,18 +708,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,187 +748,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,16 +1006,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -945,6 +1026,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,23 +1057,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,175 +1103,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1179,6 +1260,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1204,15 +1291,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,9 +1315,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1549,10 +1645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1562,17 +1658,18 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
     <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
-    <col min="6" max="6" width="12" style="18" customWidth="1"/>
-    <col min="7" max="7" width="20" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" customWidth="1"/>
     <col min="8" max="8" width="51.5428571428571" customWidth="1"/>
     <col min="9" max="10" width="55" customWidth="1"/>
-    <col min="11" max="12" width="16.2666666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="11" max="11" width="38.3238095238095" customWidth="1"/>
+    <col min="12" max="13" width="16.2666666666667" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,10 +1685,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1615,450 +1712,502 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="b">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>24</v>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="N4" t="b">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="O5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="N5" t="b">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" t="b">
+      <c r="O6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="1" t="b">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" t="b">
+      <c r="O7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="13" customHeight="1" spans="1:13">
+    </row>
+    <row r="8" ht="13" customHeight="1" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" t="b">
+        <v>56</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" t="b">
+        <v>63</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" t="b">
+        <v>68</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" t="b">
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" s="15" customFormat="1" spans="1:14">
-      <c r="A11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>65</v>
+      <c r="P10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" s="18" customFormat="1" spans="1:15">
+      <c r="A11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="15" t="b">
+        <v>76</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="15" t="b">
+      <c r="O11" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="1" spans="1:14">
-      <c r="A12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>70</v>
+    <row r="12" s="19" customFormat="1" spans="1:15">
+      <c r="A12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="19" customFormat="1" spans="1:18">
+      <c r="A13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="16" t="b">
+      <c r="D13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="O13" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="16" t="b">
+      <c r="R13" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" spans="1:17">
-      <c r="A13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="N13" s="16" t="b">
+    <row r="14" s="19" customFormat="1" spans="1:18">
+      <c r="A14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="O14" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" s="16" t="b">
+      <c r="R14" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="16" customFormat="1" spans="1:17">
-      <c r="A14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="N14" s="16" t="b">
+    <row r="15" s="19" customFormat="1" spans="1:18">
+      <c r="A15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="O15" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" s="16" t="b">
+      <c r="R15" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="16" customFormat="1" spans="1:17">
-      <c r="A15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="N15" s="16" t="b">
+    <row r="16" s="20" customFormat="1" spans="1:15">
+      <c r="A16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" s="16" t="b">
+      <c r="O16" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" spans="1:14">
-      <c r="A16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
@@ -2103,27 +2252,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="6" max="6" width="28.0666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2135,301 +2285,354 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>113</v>
+        <v>132</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>142</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="6:7">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2441,63 +2644,71 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="28.2666666666667" customWidth="1"/>
-    <col min="3" max="4" width="29.7238095238095" customWidth="1"/>
-    <col min="5" max="5" width="12.5428571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.7238095238095" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="3" max="3" width="29.7238095238095" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="31.6761904761905" customWidth="1"/>
+    <col min="6" max="6" width="12.5428571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="1">
+        <v>155</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
